--- a/external-reference.xlsx
+++ b/external-reference.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="83">
   <si>
     <t>Path</t>
   </si>
@@ -211,6 +211,10 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
     <t>identifies the meaning of the extension</t>
   </si>
   <si>
@@ -249,6 +253,10 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>valueUrl</t>
   </si>
   <si>
@@ -265,7 +273,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -865,7 +873,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -967,7 +975,7 @@
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>37</v>
@@ -1167,7 +1175,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>37</v>
@@ -1198,16 +1206,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1257,7 +1265,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>45</v>
@@ -1272,12 +1280,12 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1300,13 +1308,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1345,17 +1353,17 @@
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1367,18 +1375,18 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1400,13 +1408,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1457,7 +1465,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1469,10 +1477,10 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1480,7 +1488,7 @@
         <v>51</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>37</v>
@@ -1505,7 +1513,7 @@
         <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>53</v>
@@ -1571,7 +1579,7 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>37</v>
@@ -1771,7 +1779,7 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>37</v>
@@ -1802,16 +1810,16 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1819,7 +1827,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>37</v>
@@ -1861,7 +1869,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>45</v>
@@ -1876,12 +1884,12 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1907,10 +1915,10 @@
         <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1949,17 +1957,17 @@
         <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -1971,18 +1979,18 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>37</v>
@@ -2007,10 +2015,10 @@
         <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2061,7 +2069,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2073,15 +2081,15 @@
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2104,16 +2112,16 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2121,7 +2129,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>37</v>
@@ -2163,7 +2171,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>45</v>
@@ -2178,12 +2186,12 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2206,13 +2214,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2263,7 +2271,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2275,10 +2283,10 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
